--- a/360 Staff Survey Web/Charts/temp.xlsx
+++ b/360 Staff Survey Web/Charts/temp.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="history chart" sheetId="1" r:id="Ree5a2db18c8c4fde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="history chart" sheetId="1" r:id="R232bdfd7b0814f20"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -21,7 +21,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rb22f8292db414237" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R27a20c91ab0e4027" cstate="print"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -48,10 +48,20 @@
   <x:sheetData>
     <x:row r="1">
       <x:c t="str">
-        <x:v/>
+        <x:v>Selected section: Chemistry</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c t="str">
+        <x:v>Selected question: Is the staff well mannered?</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c t="str">
+        <x:v>Selected function: Acad</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb22f8292db414237"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R27a20c91ab0e4027"/>
 </x:worksheet>
 </file>